--- a/data/trans_dic/P70C3_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0220662308979863</v>
+        <v>0.02206623089798629</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06841953621014585</v>
+        <v>0.06841953621014583</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.03803060666883332</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006808910488830915</v>
+        <v>0.00564389471207963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02999338896831966</v>
+        <v>0.03311230797830893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02044242030636195</v>
+        <v>0.02203170204825587</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05390692015696862</v>
+        <v>0.0520416756334266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.124525824414322</v>
+        <v>0.1300291395478271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06519233854915907</v>
+        <v>0.06940608869334154</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.05537694007858378</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05444743255932637</v>
+        <v>0.05444743255932636</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.05498257349174589</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04281378925674141</v>
+        <v>0.04135057260079891</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04233095622315181</v>
+        <v>0.0419850214403972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0453158901695424</v>
+        <v>0.04543073512213641</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07174012509936391</v>
+        <v>0.07185461046683173</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0704705349883408</v>
+        <v>0.06968612171421115</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06623842962292856</v>
+        <v>0.06593443846294317</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06169667221443703</v>
+        <v>0.06169667221443702</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05253672264291572</v>
+        <v>0.05253672264291571</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.05713352064260744</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04010833324116623</v>
+        <v>0.03877861952435057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03720592721913384</v>
+        <v>0.03690720446034906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04262865589485336</v>
+        <v>0.04254015550653695</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09420064503413027</v>
+        <v>0.09296169215068656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07318786188137333</v>
+        <v>0.07112498239842167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07685486582726583</v>
+        <v>0.07459024800588031</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0541617496029045</v>
+        <v>0.05416174960290449</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05462643979789011</v>
+        <v>0.0546264397978901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05436592404777386</v>
+        <v>0.05436592404777384</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04395191081400835</v>
+        <v>0.04302967018169459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04469537259446844</v>
+        <v>0.04530747226245631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0465111652906702</v>
+        <v>0.04734082391156438</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06602274593772937</v>
+        <v>0.06618991568844371</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06524090335184184</v>
+        <v>0.06782358327769793</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06309800336216236</v>
+        <v>0.06356160238761989</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1097</v>
+        <v>909</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2539</v>
+        <v>2803</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5024</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8686</v>
+        <v>8386</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10541</v>
+        <v>11007</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16023</v>
+        <v>17059</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>54138</v>
+        <v>52287</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39446</v>
+        <v>39124</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>99529</v>
+        <v>99781</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>90715</v>
+        <v>90859</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65668</v>
+        <v>64937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>145482</v>
+        <v>144815</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19350</v>
+        <v>18708</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17818</v>
+        <v>17675</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40981</v>
+        <v>40896</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45446</v>
+        <v>44848</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35050</v>
+        <v>34062</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>73884</v>
+        <v>71707</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83863</v>
+        <v>82103</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66838</v>
+        <v>67753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>158299</v>
+        <v>161123</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125976</v>
+        <v>126295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>97562</v>
+        <v>101424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>214752</v>
+        <v>216330</v>
       </c>
     </row>
     <row r="20">
